--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_35.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_35.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_9</t>
+          <t>model_1_35_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9928874169170354</v>
+        <v>0.8465642940089407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.800399439550697</v>
+        <v>0.6367558748570694</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7416484465888264</v>
+        <v>0.7317793152539337</v>
       </c>
       <c r="E2" t="n">
-        <v>0.981558806827573</v>
+        <v>0.7949234573473373</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02960631696628064</v>
+        <v>0.3636721803097887</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33472986680056</v>
+        <v>2.429015137416179</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9241085264679992</v>
+        <v>0.9594098370077967</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05065073290981649</v>
+        <v>0.2761909680534517</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4205089781528242</v>
+        <v>1.139227166394876</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1720648626718443</v>
+        <v>0.6030523860410376</v>
       </c>
       <c r="L2" t="n">
-        <v>1.455205317309733</v>
+        <v>0.7910662726930257</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1747747122571663</v>
+        <v>0.6125498582899613</v>
       </c>
       <c r="N2" t="n">
-        <v>137.039535058796</v>
+        <v>36.02300484135392</v>
       </c>
       <c r="O2" t="n">
-        <v>278.3747076020124</v>
+        <v>72.98758842957974</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_8</t>
+          <t>model_1_35_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9927878304135049</v>
+        <v>0.8470750489082476</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8002350570351154</v>
+        <v>0.6355329839563202</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7411871641287093</v>
+        <v>0.731252268539806</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9815274768748792</v>
+        <v>0.7941971169528446</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03002084844587073</v>
+        <v>0.3624615928090824</v>
       </c>
       <c r="G3" t="n">
-        <v>1.335829093439167</v>
+        <v>2.437192614500383</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9257585070811443</v>
+        <v>0.9612950525443071</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05073678401568234</v>
+        <v>0.2771691816223777</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4257989892390802</v>
+        <v>1.130102826362218</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1732652545834586</v>
+        <v>0.6020478326587368</v>
       </c>
       <c r="L3" t="n">
-        <v>1.461578853535684</v>
+        <v>0.7917617687261244</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1759940091414368</v>
+        <v>0.6115294841960743</v>
       </c>
       <c r="N3" t="n">
-        <v>137.0117263809779</v>
+        <v>36.02967352234419</v>
       </c>
       <c r="O3" t="n">
-        <v>278.3468989241944</v>
+        <v>72.99425711057</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_7</t>
+          <t>model_1_35_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9926863142358324</v>
+        <v>0.8475545143843859</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8000652103330046</v>
+        <v>0.6341188915853396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7407128561691294</v>
+        <v>0.7306850028776488</v>
       </c>
       <c r="E4" t="n">
-        <v>0.981496464268758</v>
+        <v>0.7933961602101471</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0304434122455927</v>
+        <v>0.3613251672687284</v>
       </c>
       <c r="G4" t="n">
-        <v>1.336964859118254</v>
+        <v>2.446648656696427</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9274550791506058</v>
+        <v>0.9633241289258903</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05082196349484046</v>
+        <v>0.2782478862624749</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4311331479052855</v>
+        <v>1.121811427405758</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1744804064804776</v>
+        <v>0.6011032916801641</v>
       </c>
       <c r="L4" t="n">
-        <v>1.468075888906725</v>
+        <v>0.7924146578851212</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1772282984661276</v>
+        <v>0.6105700676412836</v>
       </c>
       <c r="N4" t="n">
-        <v>136.9837713096938</v>
+        <v>36.03595397143165</v>
       </c>
       <c r="O4" t="n">
-        <v>278.3189438529102</v>
+        <v>73.00053755965747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_6</t>
+          <t>model_1_35_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9925810870463101</v>
+        <v>0.8480271447873299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7998931122519037</v>
+        <v>0.6324345020623799</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7402125013091881</v>
+        <v>0.7300775332221402</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9814506742376956</v>
+        <v>0.7925319717495354</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03088142323121242</v>
+        <v>0.3602049421685202</v>
       </c>
       <c r="G5" t="n">
-        <v>1.338115679779014</v>
+        <v>2.457912177192359</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9292448194723741</v>
+        <v>0.9654970126605302</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05094773077093741</v>
+        <v>0.2794117494933918</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4364373101288162</v>
+        <v>1.113534961094963</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1757311105957406</v>
+        <v>0.6001707608410461</v>
       </c>
       <c r="L5" t="n">
-        <v>1.474810429036154</v>
+        <v>0.7930582397104067</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1784986999209606</v>
+        <v>0.6096228503736384</v>
       </c>
       <c r="N5" t="n">
-        <v>136.9552009315879</v>
+        <v>36.04216425142217</v>
       </c>
       <c r="O5" t="n">
-        <v>278.2903734748043</v>
+        <v>73.006747839648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_5</t>
+          <t>model_1_35_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9924721540684343</v>
+        <v>0.848455614388543</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7997223639538197</v>
+        <v>0.630285492089981</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7396691507450384</v>
+        <v>0.729378510568383</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9813948691712472</v>
+        <v>0.7915970976057553</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0313348596597859</v>
+        <v>0.3591893866753371</v>
       </c>
       <c r="G6" t="n">
-        <v>1.339257474434526</v>
+        <v>2.472282616773072</v>
       </c>
       <c r="H6" t="n">
-        <v>0.931188352935062</v>
+        <v>0.9679973761613575</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0511010054256336</v>
+        <v>0.2806708100931021</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4415591649814395</v>
+        <v>1.106783528669692</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1770165519373426</v>
+        <v>0.5993241082046817</v>
       </c>
       <c r="L6" t="n">
-        <v>1.481782139620208</v>
+        <v>0.793641687678016</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1798043856787228</v>
+        <v>0.6087628638045934</v>
       </c>
       <c r="N6" t="n">
-        <v>136.9260481480406</v>
+        <v>36.04781098021655</v>
       </c>
       <c r="O6" t="n">
-        <v>278.261220691257</v>
+        <v>73.01239456844237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_4</t>
+          <t>model_1_35_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9923612102932622</v>
+        <v>0.8487818570983576</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7995485183645274</v>
+        <v>0.6275756340171648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7391324640755572</v>
+        <v>0.7285491226112073</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9813374854839063</v>
+        <v>0.7905645325283465</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0317966660857871</v>
+        <v>0.3584161286072614</v>
       </c>
       <c r="G7" t="n">
-        <v>1.340419980690608</v>
+        <v>2.490403450183743</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9331080500329152</v>
+        <v>0.9709640487934981</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05125861593346289</v>
+        <v>0.2820614379270749</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4468591232773081</v>
+        <v>1.102307014155839</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1783161969249768</v>
+        <v>0.5986786522060574</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48888254123122</v>
+        <v>0.794085933070104</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1811244987757439</v>
+        <v>0.60810724251921</v>
       </c>
       <c r="N7" t="n">
-        <v>136.8967876695234</v>
+        <v>36.05212119439908</v>
       </c>
       <c r="O7" t="n">
-        <v>278.2319602127398</v>
+        <v>73.0167047826249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_3</t>
+          <t>model_1_35_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9922439871457838</v>
+        <v>0.8489775602428687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7993725000506614</v>
+        <v>0.6245205983128945</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7385806995085138</v>
+        <v>0.7276151715419005</v>
       </c>
       <c r="E8" t="n">
-        <v>0.981251943896435</v>
+        <v>0.789412256406236</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03228461056665295</v>
+        <v>0.3579522744554647</v>
       </c>
       <c r="G8" t="n">
-        <v>1.34159701596592</v>
+        <v>2.510832488005343</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9350816798960815</v>
+        <v>0.9743047376148142</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05149356516148619</v>
+        <v>0.2836132890238119</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4523322178430005</v>
+        <v>1.098710461513279</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1796791879062596</v>
+        <v>0.5982911285114169</v>
       </c>
       <c r="L8" t="n">
-        <v>1.496384822669839</v>
+        <v>0.7943524224583745</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1825089555024909</v>
+        <v>0.6077136157137605</v>
       </c>
       <c r="N8" t="n">
-        <v>136.8663292306763</v>
+        <v>36.05471122609026</v>
       </c>
       <c r="O8" t="n">
-        <v>278.2015017738927</v>
+        <v>73.01929481431608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_2</t>
+          <t>model_1_35_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9921247120926293</v>
+        <v>0.8489640622193725</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7991946564623116</v>
+        <v>0.6209578159101171</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7380326644455232</v>
+        <v>0.7265063196557067</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9811619252024816</v>
+        <v>0.7880928247557042</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03278109615967417</v>
+        <v>0.3579842673713446</v>
       </c>
       <c r="G9" t="n">
-        <v>1.34278625686011</v>
+        <v>2.534656830337821</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9370419695395003</v>
+        <v>0.9782710365168029</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0517408112470132</v>
+        <v>0.2853902601982184</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4579502658717591</v>
+        <v>1.097464255099963</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1810555057425048</v>
+        <v>0.5983178648271709</v>
       </c>
       <c r="L9" t="n">
-        <v>1.504018426071724</v>
+        <v>0.7943340421710604</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1839069489688438</v>
+        <v>0.607740773099761</v>
       </c>
       <c r="N9" t="n">
-        <v>136.8358065326662</v>
+        <v>36.05453247887437</v>
       </c>
       <c r="O9" t="n">
-        <v>278.1709790758827</v>
+        <v>73.01911606710019</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_1</t>
+          <t>model_1_35_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9920028659080388</v>
+        <v>0.8487234113750876</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7990120828474143</v>
+        <v>0.6103396882658234</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7374668428707284</v>
+        <v>0.7216463762947617</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9810711315297851</v>
+        <v>0.7798211069312412</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03328828415593973</v>
+        <v>0.3585546562301125</v>
       </c>
       <c r="G10" t="n">
-        <v>1.344007127463602</v>
+        <v>2.605660298787195</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9390658805043213</v>
+        <v>0.9956547721231961</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05199018589553232</v>
+        <v>0.2965303629318247</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4634858315385647</v>
+        <v>1.067043365190777</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1824507718699478</v>
+        <v>0.5987943355026937</v>
       </c>
       <c r="L10" t="n">
-        <v>1.511816581885519</v>
+        <v>0.7940063474043746</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1853241891430396</v>
+        <v>0.6082247477121275</v>
       </c>
       <c r="N10" t="n">
-        <v>136.8050995421008</v>
+        <v>36.05134834491899</v>
       </c>
       <c r="O10" t="n">
-        <v>278.1402720853172</v>
+        <v>73.01593193314481</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_0</t>
+          <t>model_1_35_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9918737684127886</v>
+        <v>0.8495594957816018</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7988226239134627</v>
+        <v>0.6089673593076596</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7368647293853023</v>
+        <v>0.7190711105063602</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9809426078010757</v>
+        <v>0.7726524922200885</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03382565592641278</v>
+        <v>0.3565729751274247</v>
       </c>
       <c r="G11" t="n">
-        <v>1.345274040227315</v>
+        <v>2.614837068849431</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9412196055291446</v>
+        <v>1.004866348525818</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05234319022635678</v>
+        <v>0.3061848393095976</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4690306491340133</v>
+        <v>1.025326328903365</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1839175247941663</v>
+        <v>0.5971373168103168</v>
       </c>
       <c r="L11" t="n">
-        <v>1.520078821581528</v>
+        <v>0.795144845319628</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1868140419595996</v>
+        <v>0.6065416326317568</v>
       </c>
       <c r="N11" t="n">
-        <v>136.7730714266989</v>
+        <v>36.06243272252215</v>
       </c>
       <c r="O11" t="n">
-        <v>278.1082439699153</v>
+        <v>73.02701631074797</v>
       </c>
     </row>
   </sheetData>
